--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.03827479771084</v>
+        <v>90.03651278953951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3079892094137662</v>
+        <v>0.2775777039333667</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.9401252786141</v>
+        <v>89.01072046994881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3363725270355803</v>
+        <v>0.2981230945045101</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.03201034334259</v>
+        <v>87.98338640805483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3326466596289802</v>
+        <v>0.2998057063917735</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.97205458179374</v>
+        <v>87.04022814089065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3187868227829181</v>
+        <v>0.2811525263892456</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.03365930789187</v>
+        <v>85.97582050560601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3246370227952998</v>
+        <v>0.3166723526952329</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.03524115140016</v>
+        <v>85.01809249147767</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3151054895729372</v>
+        <v>0.331023046677163</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02613884416144</v>
+        <v>83.99001694270517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3717936432972306</v>
+        <v>0.3221054424627098</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.00813031776161</v>
+        <v>82.97925904787613</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3142167329324797</v>
+        <v>0.3595532950172979</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.96069370225267</v>
+        <v>81.93421456141084</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3389732313560901</v>
+        <v>0.3481943736785679</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98434170825925</v>
+        <v>81.02733114015706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.358620909315401</v>
+        <v>0.3570291642732497</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.01321934654085</v>
+        <v>79.98959176783073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3313029614669801</v>
+        <v>0.3229891988101548</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.02567622616532</v>
+        <v>78.94632195938611</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3208651610683976</v>
+        <v>0.3570323500889058</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.99560255086884</v>
+        <v>78.00099323367516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3654259266376302</v>
+        <v>0.3858220470800432</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03452330988377</v>
+        <v>76.98617187945612</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3739536009746122</v>
+        <v>0.3788271042152715</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.08127339858383</v>
+        <v>76.00102335921707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.382264788277393</v>
+        <v>0.3901933373856721</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.94457371433592</v>
+        <v>74.88207459981213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4329096109653227</v>
+        <v>0.3837505365593286</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.04110032275729</v>
+        <v>73.9851487107323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4219212813603833</v>
+        <v>0.4036920276668454</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.98823268578927</v>
+        <v>73.0238710292747</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435887912715567</v>
+        <v>0.424519062152314</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.0116016344921</v>
+        <v>72.0531157668598</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4455078240778539</v>
+        <v>0.402137005651073</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0964197278925</v>
+        <v>71.01103694597099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4128401452545025</v>
+        <v>0.4768077230327685</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.0326310831737</v>
+        <v>70.02051455873631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4473075192964727</v>
+        <v>0.3939709217362843</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.94920962866333</v>
+        <v>68.98635234736166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4338645029219841</v>
+        <v>0.4391304874471549</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.03867806307278</v>
+        <v>67.90251221463328</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4603643581995408</v>
+        <v>0.4878979802815415</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.00399091480818</v>
+        <v>66.96485177546073</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4072441642259718</v>
+        <v>0.5014404822271304</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.95872296154353</v>
+        <v>65.90180136674715</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4480570016715677</v>
+        <v>0.4341081738727156</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.979121896425</v>
+        <v>65.04921858263243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4762169758978304</v>
+        <v>0.489937424410303</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.01023850467769</v>
+        <v>63.90717533539022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5322896692260408</v>
+        <v>0.4535061348416221</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02353336270815</v>
+        <v>62.95995601929981</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4754944359578799</v>
+        <v>0.4566300200835675</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.00151089321389</v>
+        <v>61.9867561539619</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4988685218932942</v>
+        <v>0.5043909437358198</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.08984115784259</v>
+        <v>60.96212828532116</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4806592938436358</v>
+        <v>0.5117762631987892</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.9760994864615</v>
+        <v>60.06486274048459</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4955804817897602</v>
+        <v>0.5175588692360431</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.02931943303481</v>
+        <v>59.02185633665299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5258277668087947</v>
+        <v>0.4976209290970931</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.98079810930693</v>
+        <v>57.97013655482165</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4893898444436274</v>
+        <v>0.5396231126967798</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.8537369861821</v>
+        <v>56.98738383342425</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5614452716700877</v>
+        <v>0.5562035549611325</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.04573965246869</v>
+        <v>56.02850537092932</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5161153814951138</v>
+        <v>0.5622269056793561</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.02954596141568</v>
+        <v>54.98184115991762</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4977497539929603</v>
+        <v>0.5327051532477033</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05121823668449</v>
+        <v>53.93802294420371</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4981788598968544</v>
+        <v>0.5217524641220559</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.89005035842729</v>
+        <v>53.05544779662928</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5651533556321821</v>
+        <v>0.5715017159411233</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90890196992405</v>
+        <v>52.00429886820558</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5182717175138045</v>
+        <v>0.5724074288310622</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.96574435709749</v>
+        <v>51.06883976375269</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5380073333397342</v>
+        <v>0.5296378436190949</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.9499482270279</v>
+        <v>49.86743002540252</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6087880148508902</v>
+        <v>0.56826757153519</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.05689344129275</v>
+        <v>49.10852923968907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6515538719781829</v>
+        <v>0.5749671014479372</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.98713661711614</v>
+        <v>48.05553599751719</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5715246053624047</v>
+        <v>0.5360083514395211</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.85415485983033</v>
+        <v>46.9752123693624</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5488981373358938</v>
+        <v>0.5637917049636605</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.01119132136896</v>
+        <v>46.01136400515679</v>
       </c>
       <c r="D46" t="n">
-        <v>0.549487830029051</v>
+        <v>0.661849972637171</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.07514189362064</v>
+        <v>44.95131393874344</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6375251148564928</v>
+        <v>0.6141271027622899</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.10770752797557</v>
+        <v>43.95746609393229</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6073918709426303</v>
+        <v>0.6160443006482476</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.01105436358353</v>
+        <v>42.90234731892721</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6145026729079041</v>
+        <v>0.5433458162816902</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.03862678174232</v>
+        <v>42.10437313563635</v>
       </c>
       <c r="D50" t="n">
-        <v>0.703082395616461</v>
+        <v>0.572648455669612</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.12076713639801</v>
+        <v>41.06055053524918</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6685142766905707</v>
+        <v>0.6671075128281233</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.97757563626103</v>
+        <v>39.99969305908857</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6255330273916616</v>
+        <v>0.624187736157738</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10932667720386</v>
+        <v>38.94428862336366</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5984623420774148</v>
+        <v>0.6393973781113513</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99351963341869</v>
+        <v>38.05006523474051</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6957783620146176</v>
+        <v>0.6383290294912622</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.04426602937994</v>
+        <v>36.88107105551975</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7184444233197477</v>
+        <v>0.6656715341506586</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.95980530251322</v>
+        <v>35.99893774629511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6121324569763156</v>
+        <v>0.6882175092263682</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.02135797372087</v>
+        <v>34.97873055061275</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6656464399982314</v>
+        <v>0.6541809652305283</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.04804678709522</v>
+        <v>33.94877540052199</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6445079172754975</v>
+        <v>0.6566071872715009</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02248469435256</v>
+        <v>32.95844206359018</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6653133891767178</v>
+        <v>0.630019460703906</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.95473647960067</v>
+        <v>32.06076580063568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.797380467373037</v>
+        <v>0.8010776977084245</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.92721003549327</v>
+        <v>30.94154716207895</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7506314275264896</v>
+        <v>0.7324501021445935</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.01237776718774</v>
+        <v>29.89319911329133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6500806935497656</v>
+        <v>0.7227357527147671</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.9450728753735</v>
+        <v>28.95020703610827</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7178167962307962</v>
+        <v>0.5891046942295597</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.88142004293212</v>
+        <v>28.02355945325912</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7083070174411388</v>
+        <v>0.6800138042144843</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.00055186329426</v>
+        <v>26.88921843772608</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6712248858065768</v>
+        <v>0.6694218140590497</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.93488902643191</v>
+        <v>26.14590197069171</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7846879122596691</v>
+        <v>0.9039275871847813</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.97440612049697</v>
+        <v>25.04168659714998</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7105391550283541</v>
+        <v>0.7554697228162529</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88885936997973</v>
+        <v>23.79931797279466</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8057333340777586</v>
+        <v>0.6532842904088981</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.12722998315767</v>
+        <v>22.9972227882124</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7430358182482831</v>
+        <v>0.6042119304725019</v>
       </c>
     </row>
   </sheetData>
